--- a/unittestdata/reels.xlsx
+++ b/unittestdata/reels.xlsx
@@ -1,27 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\The Nemean King\配置表V02\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>line</t>
   </si>
@@ -44,46 +36,47 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="DengXian"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -91,58 +84,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffffffff"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 主题​​">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -166,82 +192,22 @@
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 主题​​">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 主题​​">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -273,20 +239,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -298,7 +260,7 @@
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
-              <a:satMod val="105000"/>
+              <a:satMod val="104999"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
@@ -319,16 +281,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -337,23 +290,21 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -408,48 +359,919 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K261"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="6" width="8.85156" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85156" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="14.25" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="3">
+      <c r="E1" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="16" customHeight="1">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="4">
@@ -467,14 +1289,9 @@
       <c r="F2" s="4">
         <v>4</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="3">
+    </row>
+    <row r="3" ht="16" customHeight="1">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="4">
@@ -492,14 +1309,9 @@
       <c r="F3" s="4">
         <v>9</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="3">
+    </row>
+    <row r="4" ht="16" customHeight="1">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="4">
@@ -517,14 +1329,9 @@
       <c r="F4" s="4">
         <v>8</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="3">
+    </row>
+    <row r="5" ht="16" customHeight="1">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="4">
@@ -542,14 +1349,9 @@
       <c r="F5" s="4">
         <v>3</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="3">
+    </row>
+    <row r="6" ht="16" customHeight="1">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="4">
@@ -567,14 +1369,9 @@
       <c r="F6" s="4">
         <v>10</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3">
+    </row>
+    <row r="7" ht="16" customHeight="1">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="4">
@@ -592,14 +1389,9 @@
       <c r="F7" s="4">
         <v>6</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3">
+    </row>
+    <row r="8" ht="16" customHeight="1">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="4">
@@ -617,14 +1409,9 @@
       <c r="F8" s="4">
         <v>10</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="3">
+    </row>
+    <row r="9" ht="16" customHeight="1">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" s="4">
@@ -642,14 +1429,9 @@
       <c r="F9" s="4">
         <v>6</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="3">
+    </row>
+    <row r="10" ht="16" customHeight="1">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" s="4">
@@ -667,14 +1449,9 @@
       <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="3">
+    </row>
+    <row r="11" ht="16" customHeight="1">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" s="4">
@@ -692,14 +1469,9 @@
       <c r="F11" s="4">
         <v>9</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="3">
+    </row>
+    <row r="12" ht="16" customHeight="1">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="4">
@@ -717,14 +1489,9 @@
       <c r="F12" s="4">
         <v>5</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="3">
+    </row>
+    <row r="13" ht="16" customHeight="1">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="B13" s="4">
@@ -742,14 +1509,9 @@
       <c r="F13" s="4">
         <v>3</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="3">
+    </row>
+    <row r="14" ht="16" customHeight="1">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
       <c r="B14" s="4">
@@ -767,14 +1529,9 @@
       <c r="F14" s="4">
         <v>10</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="3">
+    </row>
+    <row r="15" ht="16" customHeight="1">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
       <c r="B15" s="4">
@@ -792,14 +1549,9 @@
       <c r="F15" s="4">
         <v>2</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="3">
+    </row>
+    <row r="16" ht="16" customHeight="1">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
       <c r="B16" s="4">
@@ -817,14 +1569,9 @@
       <c r="F16" s="4">
         <v>8</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="3">
+    </row>
+    <row r="17" ht="16" customHeight="1">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
       <c r="B17" s="4">
@@ -842,14 +1589,9 @@
       <c r="F17" s="4">
         <v>9</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="3">
+    </row>
+    <row r="18" ht="16" customHeight="1">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
       <c r="B18" s="4">
@@ -867,14 +1609,9 @@
       <c r="F18" s="4">
         <v>7</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="3">
+    </row>
+    <row r="19" ht="16" customHeight="1">
+      <c r="A19" s="4">
         <v>17</v>
       </c>
       <c r="B19" s="4">
@@ -892,14 +1629,9 @@
       <c r="F19" s="4">
         <v>4</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="3">
+    </row>
+    <row r="20" ht="16" customHeight="1">
+      <c r="A20" s="4">
         <v>18</v>
       </c>
       <c r="B20" s="4">
@@ -917,14 +1649,9 @@
       <c r="F20" s="4">
         <v>10</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="3">
+    </row>
+    <row r="21" ht="16" customHeight="1">
+      <c r="A21" s="4">
         <v>19</v>
       </c>
       <c r="B21" s="4">
@@ -942,14 +1669,9 @@
       <c r="F21" s="4">
         <v>6</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="3">
+    </row>
+    <row r="22" ht="16" customHeight="1">
+      <c r="A22" s="4">
         <v>20</v>
       </c>
       <c r="B22" s="4">
@@ -967,14 +1689,9 @@
       <c r="F22" s="4">
         <v>0</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="3">
+    </row>
+    <row r="23" ht="16" customHeight="1">
+      <c r="A23" s="4">
         <v>21</v>
       </c>
       <c r="B23" s="4">
@@ -992,14 +1709,9 @@
       <c r="F23" s="4">
         <v>0</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="3">
+    </row>
+    <row r="24" ht="16" customHeight="1">
+      <c r="A24" s="4">
         <v>22</v>
       </c>
       <c r="B24" s="4">
@@ -1017,14 +1729,9 @@
       <c r="F24" s="4">
         <v>0</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="3">
+    </row>
+    <row r="25" ht="16" customHeight="1">
+      <c r="A25" s="4">
         <v>23</v>
       </c>
       <c r="B25" s="4">
@@ -1042,14 +1749,9 @@
       <c r="F25" s="4">
         <v>0</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="3">
+    </row>
+    <row r="26" ht="16" customHeight="1">
+      <c r="A26" s="4">
         <v>24</v>
       </c>
       <c r="B26" s="4">
@@ -1067,14 +1769,9 @@
       <c r="F26" s="4">
         <v>0</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="3">
+    </row>
+    <row r="27" ht="16" customHeight="1">
+      <c r="A27" s="4">
         <v>25</v>
       </c>
       <c r="B27" s="4">
@@ -1092,14 +1789,9 @@
       <c r="F27" s="4">
         <v>10</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="3">
+    </row>
+    <row r="28" ht="16" customHeight="1">
+      <c r="A28" s="4">
         <v>26</v>
       </c>
       <c r="B28" s="4">
@@ -1117,14 +1809,9 @@
       <c r="F28" s="4">
         <v>6</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="3">
+    </row>
+    <row r="29" ht="16" customHeight="1">
+      <c r="A29" s="4">
         <v>27</v>
       </c>
       <c r="B29" s="4">
@@ -1142,14 +1829,9 @@
       <c r="F29" s="4">
         <v>4</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="3">
+    </row>
+    <row r="30" ht="16" customHeight="1">
+      <c r="A30" s="4">
         <v>28</v>
       </c>
       <c r="B30" s="4">
@@ -1167,14 +1849,9 @@
       <c r="F30" s="4">
         <v>5</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="3">
+    </row>
+    <row r="31" ht="16" customHeight="1">
+      <c r="A31" s="4">
         <v>29</v>
       </c>
       <c r="B31" s="4">
@@ -1192,14 +1869,9 @@
       <c r="F31" s="4">
         <v>9</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="3">
+    </row>
+    <row r="32" ht="16" customHeight="1">
+      <c r="A32" s="4">
         <v>30</v>
       </c>
       <c r="B32" s="4">
@@ -1217,14 +1889,9 @@
       <c r="F32" s="4">
         <v>2</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="3">
+    </row>
+    <row r="33" ht="16" customHeight="1">
+      <c r="A33" s="4">
         <v>31</v>
       </c>
       <c r="B33" s="4">
@@ -1242,14 +1909,9 @@
       <c r="F33" s="4">
         <v>8</v>
       </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="3">
+    </row>
+    <row r="34" ht="16" customHeight="1">
+      <c r="A34" s="4">
         <v>32</v>
       </c>
       <c r="B34" s="4">
@@ -1267,14 +1929,9 @@
       <c r="F34" s="4">
         <v>10</v>
       </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="3">
+    </row>
+    <row r="35" ht="16" customHeight="1">
+      <c r="A35" s="4">
         <v>33</v>
       </c>
       <c r="B35" s="4">
@@ -1292,14 +1949,9 @@
       <c r="F35" s="4">
         <v>3</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="3">
+    </row>
+    <row r="36" ht="16" customHeight="1">
+      <c r="A36" s="4">
         <v>34</v>
       </c>
       <c r="B36" s="4">
@@ -1317,14 +1969,9 @@
       <c r="F36" s="4">
         <v>5</v>
       </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="3">
+    </row>
+    <row r="37" ht="16" customHeight="1">
+      <c r="A37" s="4">
         <v>35</v>
       </c>
       <c r="B37" s="4">
@@ -1342,14 +1989,9 @@
       <c r="F37" s="4">
         <v>12</v>
       </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="3">
+    </row>
+    <row r="38" ht="16" customHeight="1">
+      <c r="A38" s="4">
         <v>36</v>
       </c>
       <c r="B38" s="4">
@@ -1367,14 +2009,9 @@
       <c r="F38" s="4">
         <v>12</v>
       </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="3">
+    </row>
+    <row r="39" ht="16" customHeight="1">
+      <c r="A39" s="4">
         <v>37</v>
       </c>
       <c r="B39" s="4">
@@ -1392,14 +2029,9 @@
       <c r="F39" s="4">
         <v>12</v>
       </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="3">
+    </row>
+    <row r="40" ht="16" customHeight="1">
+      <c r="A40" s="4">
         <v>38</v>
       </c>
       <c r="B40" s="4">
@@ -1417,14 +2049,9 @@
       <c r="F40" s="4">
         <v>12</v>
       </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="3">
+    </row>
+    <row r="41" ht="16" customHeight="1">
+      <c r="A41" s="4">
         <v>39</v>
       </c>
       <c r="B41" s="4">
@@ -1442,14 +2069,9 @@
       <c r="F41" s="4">
         <v>12</v>
       </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="3">
+    </row>
+    <row r="42" ht="16" customHeight="1">
+      <c r="A42" s="4">
         <v>40</v>
       </c>
       <c r="B42" s="4">
@@ -1467,14 +2089,9 @@
       <c r="F42" s="4">
         <v>4</v>
       </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="3">
+    </row>
+    <row r="43" ht="16" customHeight="1">
+      <c r="A43" s="4">
         <v>41</v>
       </c>
       <c r="B43" s="4">
@@ -1492,14 +2109,9 @@
       <c r="F43" s="4">
         <v>9</v>
       </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="3">
+    </row>
+    <row r="44" ht="16" customHeight="1">
+      <c r="A44" s="4">
         <v>42</v>
       </c>
       <c r="B44" s="4">
@@ -1517,14 +2129,9 @@
       <c r="F44" s="4">
         <v>8</v>
       </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="3">
+    </row>
+    <row r="45" ht="16" customHeight="1">
+      <c r="A45" s="4">
         <v>43</v>
       </c>
       <c r="B45" s="4">
@@ -1542,14 +2149,9 @@
       <c r="F45" s="4">
         <v>3</v>
       </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="3">
+    </row>
+    <row r="46" ht="16" customHeight="1">
+      <c r="A46" s="4">
         <v>44</v>
       </c>
       <c r="B46" s="4">
@@ -1567,14 +2169,9 @@
       <c r="F46" s="4">
         <v>10</v>
       </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="3">
+    </row>
+    <row r="47" ht="16" customHeight="1">
+      <c r="A47" s="4">
         <v>45</v>
       </c>
       <c r="B47" s="4">
@@ -1592,14 +2189,9 @@
       <c r="F47" s="4">
         <v>6</v>
       </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="3">
+    </row>
+    <row r="48" ht="16" customHeight="1">
+      <c r="A48" s="4">
         <v>46</v>
       </c>
       <c r="B48" s="4">
@@ -1617,14 +2209,9 @@
       <c r="F48" s="4">
         <v>10</v>
       </c>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="3">
+    </row>
+    <row r="49" ht="16" customHeight="1">
+      <c r="A49" s="4">
         <v>47</v>
       </c>
       <c r="B49" s="4">
@@ -1642,14 +2229,9 @@
       <c r="F49" s="4">
         <v>6</v>
       </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="3">
+    </row>
+    <row r="50" ht="16" customHeight="1">
+      <c r="A50" s="4">
         <v>48</v>
       </c>
       <c r="B50" s="4">
@@ -1667,14 +2249,9 @@
       <c r="F50" s="4">
         <v>1</v>
       </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="3">
+    </row>
+    <row r="51" ht="16" customHeight="1">
+      <c r="A51" s="4">
         <v>49</v>
       </c>
       <c r="B51" s="4">
@@ -1692,14 +2269,9 @@
       <c r="F51" s="4">
         <v>9</v>
       </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="3">
+    </row>
+    <row r="52" ht="16" customHeight="1">
+      <c r="A52" s="4">
         <v>50</v>
       </c>
       <c r="B52" s="4">
@@ -1717,14 +2289,9 @@
       <c r="F52" s="4">
         <v>5</v>
       </c>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="3">
+    </row>
+    <row r="53" ht="16" customHeight="1">
+      <c r="A53" s="4">
         <v>51</v>
       </c>
       <c r="B53" s="4">
@@ -1742,14 +2309,9 @@
       <c r="F53" s="4">
         <v>3</v>
       </c>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="3">
+    </row>
+    <row r="54" ht="16" customHeight="1">
+      <c r="A54" s="4">
         <v>52</v>
       </c>
       <c r="B54" s="4">
@@ -1767,14 +2329,9 @@
       <c r="F54" s="4">
         <v>10</v>
       </c>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="3">
+    </row>
+    <row r="55" ht="16" customHeight="1">
+      <c r="A55" s="4">
         <v>53</v>
       </c>
       <c r="B55" s="4">
@@ -1792,14 +2349,9 @@
       <c r="F55" s="4">
         <v>2</v>
       </c>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="3">
+    </row>
+    <row r="56" ht="16" customHeight="1">
+      <c r="A56" s="4">
         <v>54</v>
       </c>
       <c r="B56" s="4">
@@ -1817,14 +2369,9 @@
       <c r="F56" s="4">
         <v>8</v>
       </c>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="3">
+    </row>
+    <row r="57" ht="16" customHeight="1">
+      <c r="A57" s="4">
         <v>55</v>
       </c>
       <c r="B57" s="4">
@@ -1842,14 +2389,9 @@
       <c r="F57" s="4">
         <v>9</v>
       </c>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="3">
+    </row>
+    <row r="58" ht="16" customHeight="1">
+      <c r="A58" s="4">
         <v>56</v>
       </c>
       <c r="B58" s="4">
@@ -1867,14 +2409,9 @@
       <c r="F58" s="4">
         <v>7</v>
       </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="3">
+    </row>
+    <row r="59" ht="16" customHeight="1">
+      <c r="A59" s="4">
         <v>57</v>
       </c>
       <c r="B59" s="4">
@@ -1892,14 +2429,9 @@
       <c r="F59" s="4">
         <v>4</v>
       </c>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="3">
+    </row>
+    <row r="60" ht="16" customHeight="1">
+      <c r="A60" s="4">
         <v>58</v>
       </c>
       <c r="B60" s="4">
@@ -1917,14 +2449,9 @@
       <c r="F60" s="4">
         <v>10</v>
       </c>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="3">
+    </row>
+    <row r="61" ht="16" customHeight="1">
+      <c r="A61" s="4">
         <v>59</v>
       </c>
       <c r="B61" s="4">
@@ -1942,14 +2469,9 @@
       <c r="F61" s="4">
         <v>6</v>
       </c>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="3">
+    </row>
+    <row r="62" ht="16" customHeight="1">
+      <c r="A62" s="4">
         <v>60</v>
       </c>
       <c r="B62" s="4">
@@ -1967,14 +2489,9 @@
       <c r="F62" s="4">
         <v>10</v>
       </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="3">
+    </row>
+    <row r="63" ht="16" customHeight="1">
+      <c r="A63" s="4">
         <v>61</v>
       </c>
       <c r="B63" s="4">
@@ -1992,14 +2509,9 @@
       <c r="F63" s="4">
         <v>6</v>
       </c>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="3">
+    </row>
+    <row r="64" ht="16" customHeight="1">
+      <c r="A64" s="4">
         <v>62</v>
       </c>
       <c r="B64" s="4">
@@ -2017,14 +2529,9 @@
       <c r="F64" s="4">
         <v>4</v>
       </c>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="3">
+    </row>
+    <row r="65" ht="16" customHeight="1">
+      <c r="A65" s="4">
         <v>63</v>
       </c>
       <c r="B65" s="4">
@@ -2042,14 +2549,9 @@
       <c r="F65" s="4">
         <v>5</v>
       </c>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="3">
+    </row>
+    <row r="66" ht="16" customHeight="1">
+      <c r="A66" s="4">
         <v>64</v>
       </c>
       <c r="B66" s="4">
@@ -2067,14 +2569,9 @@
       <c r="F66" s="4">
         <v>9</v>
       </c>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="3">
+    </row>
+    <row r="67" ht="16" customHeight="1">
+      <c r="A67" s="4">
         <v>65</v>
       </c>
       <c r="B67" s="4">
@@ -2092,14 +2589,9 @@
       <c r="F67" s="4">
         <v>2</v>
       </c>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="3">
+    </row>
+    <row r="68" ht="16" customHeight="1">
+      <c r="A68" s="4">
         <v>66</v>
       </c>
       <c r="B68" s="4">
@@ -2117,14 +2609,9 @@
       <c r="F68" s="4">
         <v>8</v>
       </c>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="3">
+    </row>
+    <row r="69" ht="16" customHeight="1">
+      <c r="A69" s="4">
         <v>67</v>
       </c>
       <c r="B69" s="4">
@@ -2142,14 +2629,9 @@
       <c r="F69" s="4">
         <v>10</v>
       </c>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="3">
+    </row>
+    <row r="70" ht="16" customHeight="1">
+      <c r="A70" s="4">
         <v>68</v>
       </c>
       <c r="B70" s="4">
@@ -2167,14 +2649,9 @@
       <c r="F70" s="4">
         <v>3</v>
       </c>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="3">
+    </row>
+    <row r="71" ht="16" customHeight="1">
+      <c r="A71" s="4">
         <v>69</v>
       </c>
       <c r="B71" s="4">
@@ -2192,14 +2669,9 @@
       <c r="F71" s="4">
         <v>5</v>
       </c>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="3">
+    </row>
+    <row r="72" ht="16" customHeight="1">
+      <c r="A72" s="4">
         <v>70</v>
       </c>
       <c r="B72" s="4">
@@ -2217,14 +2689,9 @@
       <c r="F72" s="4">
         <v>12</v>
       </c>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="3">
+    </row>
+    <row r="73" ht="16" customHeight="1">
+      <c r="A73" s="4">
         <v>71</v>
       </c>
       <c r="B73" s="4">
@@ -2242,14 +2709,9 @@
       <c r="F73" s="4">
         <v>12</v>
       </c>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="3">
+    </row>
+    <row r="74" ht="16" customHeight="1">
+      <c r="A74" s="4">
         <v>72</v>
       </c>
       <c r="B74" s="4">
@@ -2267,14 +2729,9 @@
       <c r="F74" s="4">
         <v>12</v>
       </c>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="3">
+    </row>
+    <row r="75" ht="16" customHeight="1">
+      <c r="A75" s="4">
         <v>73</v>
       </c>
       <c r="B75" s="4">
@@ -2292,14 +2749,9 @@
       <c r="F75" s="4">
         <v>12</v>
       </c>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="3">
+    </row>
+    <row r="76" ht="16" customHeight="1">
+      <c r="A76" s="4">
         <v>74</v>
       </c>
       <c r="B76" s="4">
@@ -2317,14 +2769,9 @@
       <c r="F76" s="4">
         <v>12</v>
       </c>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="3">
+    </row>
+    <row r="77" ht="16" customHeight="1">
+      <c r="A77" s="4">
         <v>75</v>
       </c>
       <c r="B77" s="4">
@@ -2342,14 +2789,9 @@
       <c r="F77" s="4">
         <v>4</v>
       </c>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="3">
+    </row>
+    <row r="78" ht="16" customHeight="1">
+      <c r="A78" s="4">
         <v>76</v>
       </c>
       <c r="B78" s="4">
@@ -2367,14 +2809,9 @@
       <c r="F78" s="4">
         <v>9</v>
       </c>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="3">
+    </row>
+    <row r="79" ht="16" customHeight="1">
+      <c r="A79" s="4">
         <v>77</v>
       </c>
       <c r="B79" s="4">
@@ -2392,14 +2829,9 @@
       <c r="F79" s="4">
         <v>8</v>
       </c>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="3">
+    </row>
+    <row r="80" ht="16" customHeight="1">
+      <c r="A80" s="4">
         <v>78</v>
       </c>
       <c r="B80" s="4">
@@ -2417,14 +2849,9 @@
       <c r="F80" s="4">
         <v>3</v>
       </c>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="3">
+    </row>
+    <row r="81" ht="16" customHeight="1">
+      <c r="A81" s="4">
         <v>79</v>
       </c>
       <c r="B81" s="4">
@@ -2442,14 +2869,9 @@
       <c r="F81" s="4">
         <v>10</v>
       </c>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="3">
+    </row>
+    <row r="82" ht="16" customHeight="1">
+      <c r="A82" s="4">
         <v>80</v>
       </c>
       <c r="B82" s="4">
@@ -2467,14 +2889,9 @@
       <c r="F82" s="4">
         <v>6</v>
       </c>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="3">
+    </row>
+    <row r="83" ht="16" customHeight="1">
+      <c r="A83" s="4">
         <v>81</v>
       </c>
       <c r="B83" s="4">
@@ -2492,14 +2909,9 @@
       <c r="F83" s="4">
         <v>10</v>
       </c>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="3">
+    </row>
+    <row r="84" ht="16" customHeight="1">
+      <c r="A84" s="4">
         <v>82</v>
       </c>
       <c r="B84" s="4">
@@ -2517,14 +2929,9 @@
       <c r="F84" s="4">
         <v>6</v>
       </c>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="3">
+    </row>
+    <row r="85" ht="16" customHeight="1">
+      <c r="A85" s="4">
         <v>83</v>
       </c>
       <c r="B85" s="4">
@@ -2542,14 +2949,9 @@
       <c r="F85" s="4">
         <v>1</v>
       </c>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="3">
+    </row>
+    <row r="86" ht="16" customHeight="1">
+      <c r="A86" s="4">
         <v>84</v>
       </c>
       <c r="B86" s="4">
@@ -2567,14 +2969,9 @@
       <c r="F86" s="4">
         <v>9</v>
       </c>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="3">
+    </row>
+    <row r="87" ht="16" customHeight="1">
+      <c r="A87" s="4">
         <v>85</v>
       </c>
       <c r="B87" s="4">
@@ -2592,14 +2989,9 @@
       <c r="F87" s="4">
         <v>5</v>
       </c>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="3">
+    </row>
+    <row r="88" ht="16" customHeight="1">
+      <c r="A88" s="4">
         <v>86</v>
       </c>
       <c r="B88" s="4">
@@ -2617,14 +3009,9 @@
       <c r="F88" s="4">
         <v>3</v>
       </c>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="3">
+    </row>
+    <row r="89" ht="16" customHeight="1">
+      <c r="A89" s="4">
         <v>87</v>
       </c>
       <c r="B89" s="4">
@@ -2642,14 +3029,9 @@
       <c r="F89" s="4">
         <v>10</v>
       </c>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="3">
+    </row>
+    <row r="90" ht="16" customHeight="1">
+      <c r="A90" s="4">
         <v>88</v>
       </c>
       <c r="B90" s="4">
@@ -2667,14 +3049,9 @@
       <c r="F90" s="4">
         <v>2</v>
       </c>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="3">
+    </row>
+    <row r="91" ht="16" customHeight="1">
+      <c r="A91" s="4">
         <v>89</v>
       </c>
       <c r="B91" s="4">
@@ -2693,8 +3070,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="3">
+    <row r="92" ht="16" customHeight="1">
+      <c r="A92" s="4">
         <v>90</v>
       </c>
       <c r="B92" s="4">
@@ -2713,8 +3090,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="3">
+    <row r="93" ht="16" customHeight="1">
+      <c r="A93" s="4">
         <v>91</v>
       </c>
       <c r="B93" s="4">
@@ -2733,8 +3110,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="3">
+    <row r="94" ht="16" customHeight="1">
+      <c r="A94" s="4">
         <v>92</v>
       </c>
       <c r="B94" s="4">
@@ -2753,8 +3130,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="3">
+    <row r="95" ht="16" customHeight="1">
+      <c r="A95" s="4">
         <v>93</v>
       </c>
       <c r="B95" s="4">
@@ -2773,8 +3150,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="3">
+    <row r="96" ht="16" customHeight="1">
+      <c r="A96" s="4">
         <v>94</v>
       </c>
       <c r="B96" s="4">
@@ -2793,8 +3170,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="3">
+    <row r="97" ht="16" customHeight="1">
+      <c r="A97" s="4">
         <v>95</v>
       </c>
       <c r="B97" s="4">
@@ -2813,8 +3190,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="3">
+    <row r="98" ht="16" customHeight="1">
+      <c r="A98" s="4">
         <v>96</v>
       </c>
       <c r="B98" s="4">
@@ -2833,8 +3210,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="3">
+    <row r="99" ht="16" customHeight="1">
+      <c r="A99" s="4">
         <v>97</v>
       </c>
       <c r="B99" s="4">
@@ -2853,8 +3230,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="3">
+    <row r="100" ht="16" customHeight="1">
+      <c r="A100" s="4">
         <v>98</v>
       </c>
       <c r="B100" s="4">
@@ -2873,8 +3250,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="3">
+    <row r="101" ht="16" customHeight="1">
+      <c r="A101" s="4">
         <v>99</v>
       </c>
       <c r="B101" s="4">
@@ -2893,8 +3270,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="3">
+    <row r="102" ht="16" customHeight="1">
+      <c r="A102" s="4">
         <v>100</v>
       </c>
       <c r="B102" s="4">
@@ -2913,8 +3290,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="3">
+    <row r="103" ht="16" customHeight="1">
+      <c r="A103" s="4">
         <v>101</v>
       </c>
       <c r="B103" s="4">
@@ -2933,8 +3310,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="3">
+    <row r="104" ht="16" customHeight="1">
+      <c r="A104" s="4">
         <v>102</v>
       </c>
       <c r="B104" s="4">
@@ -2953,8 +3330,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="3">
+    <row r="105" ht="16" customHeight="1">
+      <c r="A105" s="4">
         <v>103</v>
       </c>
       <c r="B105" s="4">
@@ -2973,8 +3350,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="3">
+    <row r="106" ht="16" customHeight="1">
+      <c r="A106" s="4">
         <v>104</v>
       </c>
       <c r="B106" s="4">
@@ -2993,8 +3370,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="3">
+    <row r="107" ht="16" customHeight="1">
+      <c r="A107" s="4">
         <v>105</v>
       </c>
       <c r="B107" s="4">
@@ -3013,8 +3390,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="3">
+    <row r="108" ht="16" customHeight="1">
+      <c r="A108" s="4">
         <v>106</v>
       </c>
       <c r="B108" s="4">
@@ -3033,8 +3410,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="3">
+    <row r="109" ht="16" customHeight="1">
+      <c r="A109" s="4">
         <v>107</v>
       </c>
       <c r="B109" s="4">
@@ -3053,8 +3430,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="3">
+    <row r="110" ht="16" customHeight="1">
+      <c r="A110" s="4">
         <v>108</v>
       </c>
       <c r="B110" s="4">
@@ -3073,8 +3450,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="3">
+    <row r="111" ht="16" customHeight="1">
+      <c r="A111" s="4">
         <v>109</v>
       </c>
       <c r="B111" s="4">
@@ -3093,8 +3470,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="3">
+    <row r="112" ht="16" customHeight="1">
+      <c r="A112" s="4">
         <v>110</v>
       </c>
       <c r="B112" s="4">
@@ -3113,8 +3490,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="3">
+    <row r="113" ht="16" customHeight="1">
+      <c r="A113" s="4">
         <v>111</v>
       </c>
       <c r="B113" s="4">
@@ -3133,8 +3510,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="3">
+    <row r="114" ht="16" customHeight="1">
+      <c r="A114" s="4">
         <v>112</v>
       </c>
       <c r="B114" s="4">
@@ -3153,8 +3530,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="3">
+    <row r="115" ht="16" customHeight="1">
+      <c r="A115" s="4">
         <v>113</v>
       </c>
       <c r="B115" s="4">
@@ -3173,8 +3550,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="3">
+    <row r="116" ht="16" customHeight="1">
+      <c r="A116" s="4">
         <v>114</v>
       </c>
       <c r="B116" s="4">
@@ -3193,8 +3570,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="3">
+    <row r="117" ht="16" customHeight="1">
+      <c r="A117" s="4">
         <v>115</v>
       </c>
       <c r="B117" s="4">
@@ -3213,8 +3590,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="3">
+    <row r="118" ht="16" customHeight="1">
+      <c r="A118" s="4">
         <v>116</v>
       </c>
       <c r="B118" s="4">
@@ -3233,8 +3610,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="3">
+    <row r="119" ht="16" customHeight="1">
+      <c r="A119" s="4">
         <v>117</v>
       </c>
       <c r="B119" s="4">
@@ -3253,8 +3630,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="3">
+    <row r="120" ht="16" customHeight="1">
+      <c r="A120" s="4">
         <v>118</v>
       </c>
       <c r="B120" s="4">
@@ -3273,8 +3650,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="3">
+    <row r="121" ht="16" customHeight="1">
+      <c r="A121" s="4">
         <v>119</v>
       </c>
       <c r="B121" s="4">
@@ -3293,8 +3670,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="3">
+    <row r="122" ht="16" customHeight="1">
+      <c r="A122" s="4">
         <v>120</v>
       </c>
       <c r="B122" s="4">
@@ -3313,8 +3690,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="3">
+    <row r="123" ht="16" customHeight="1">
+      <c r="A123" s="4">
         <v>121</v>
       </c>
       <c r="B123" s="4">
@@ -3333,8 +3710,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="3">
+    <row r="124" ht="16" customHeight="1">
+      <c r="A124" s="4">
         <v>122</v>
       </c>
       <c r="B124" s="4">
@@ -3353,8 +3730,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="3">
+    <row r="125" ht="16" customHeight="1">
+      <c r="A125" s="4">
         <v>123</v>
       </c>
       <c r="B125" s="4">
@@ -3373,8 +3750,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="3">
+    <row r="126" ht="16" customHeight="1">
+      <c r="A126" s="4">
         <v>124</v>
       </c>
       <c r="B126" s="4">
@@ -3393,8 +3770,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="3">
+    <row r="127" ht="16" customHeight="1">
+      <c r="A127" s="4">
         <v>125</v>
       </c>
       <c r="B127" s="4">
@@ -3413,8 +3790,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="3">
+    <row r="128" ht="16" customHeight="1">
+      <c r="A128" s="4">
         <v>126</v>
       </c>
       <c r="B128" s="4">
@@ -3433,8 +3810,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="3">
+    <row r="129" ht="16" customHeight="1">
+      <c r="A129" s="4">
         <v>127</v>
       </c>
       <c r="B129" s="4">
@@ -3453,8 +3830,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="3">
+    <row r="130" ht="16" customHeight="1">
+      <c r="A130" s="4">
         <v>128</v>
       </c>
       <c r="B130" s="4">
@@ -3473,8 +3850,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="3">
+    <row r="131" ht="16" customHeight="1">
+      <c r="A131" s="4">
         <v>129</v>
       </c>
       <c r="B131" s="4">
@@ -3493,8 +3870,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="3">
+    <row r="132" ht="16" customHeight="1">
+      <c r="A132" s="4">
         <v>130</v>
       </c>
       <c r="B132" s="4">
@@ -3513,8 +3890,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="3">
+    <row r="133" ht="16" customHeight="1">
+      <c r="A133" s="4">
         <v>131</v>
       </c>
       <c r="B133" s="4">
@@ -3533,8 +3910,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="3">
+    <row r="134" ht="16" customHeight="1">
+      <c r="A134" s="4">
         <v>132</v>
       </c>
       <c r="B134" s="4">
@@ -3553,8 +3930,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="3">
+    <row r="135" ht="16" customHeight="1">
+      <c r="A135" s="4">
         <v>133</v>
       </c>
       <c r="B135" s="4">
@@ -3573,8 +3950,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="3">
+    <row r="136" ht="16" customHeight="1">
+      <c r="A136" s="4">
         <v>134</v>
       </c>
       <c r="B136" s="4">
@@ -3593,8 +3970,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="3">
+    <row r="137" ht="16" customHeight="1">
+      <c r="A137" s="4">
         <v>135</v>
       </c>
       <c r="B137" s="4">
@@ -3613,8 +3990,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="3">
+    <row r="138" ht="16" customHeight="1">
+      <c r="A138" s="4">
         <v>136</v>
       </c>
       <c r="B138" s="4">
@@ -3633,8 +4010,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="3">
+    <row r="139" ht="16" customHeight="1">
+      <c r="A139" s="4">
         <v>137</v>
       </c>
       <c r="B139" s="4">
@@ -3653,8 +4030,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="3">
+    <row r="140" ht="16" customHeight="1">
+      <c r="A140" s="4">
         <v>138</v>
       </c>
       <c r="B140" s="4">
@@ -3673,8 +4050,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="3">
+    <row r="141" ht="16" customHeight="1">
+      <c r="A141" s="4">
         <v>139</v>
       </c>
       <c r="B141" s="4">
@@ -3693,8 +4070,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="3">
+    <row r="142" ht="16" customHeight="1">
+      <c r="A142" s="4">
         <v>140</v>
       </c>
       <c r="B142" s="4">
@@ -3713,8 +4090,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
-      <c r="A143" s="3">
+    <row r="143" ht="16" customHeight="1">
+      <c r="A143" s="4">
         <v>141</v>
       </c>
       <c r="B143" s="4">
@@ -3733,8 +4110,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="3">
+    <row r="144" ht="16" customHeight="1">
+      <c r="A144" s="4">
         <v>142</v>
       </c>
       <c r="B144" s="4">
@@ -3753,8 +4130,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="3">
+    <row r="145" ht="16" customHeight="1">
+      <c r="A145" s="4">
         <v>143</v>
       </c>
       <c r="B145" s="4">
@@ -3773,8 +4150,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
-      <c r="A146" s="3">
+    <row r="146" ht="16" customHeight="1">
+      <c r="A146" s="4">
         <v>144</v>
       </c>
       <c r="B146" s="4">
@@ -3793,8 +4170,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
-      <c r="A147" s="3">
+    <row r="147" ht="16" customHeight="1">
+      <c r="A147" s="4">
         <v>145</v>
       </c>
       <c r="B147" s="4">
@@ -3813,8 +4190,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
-      <c r="A148" s="3">
+    <row r="148" ht="16" customHeight="1">
+      <c r="A148" s="4">
         <v>146</v>
       </c>
       <c r="B148" s="4">
@@ -3833,8 +4210,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
-      <c r="A149" s="3">
+    <row r="149" ht="16" customHeight="1">
+      <c r="A149" s="4">
         <v>147</v>
       </c>
       <c r="B149" s="4">
@@ -3853,8 +4230,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
-      <c r="A150" s="3">
+    <row r="150" ht="16" customHeight="1">
+      <c r="A150" s="4">
         <v>148</v>
       </c>
       <c r="B150" s="4">
@@ -3873,8 +4250,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
-      <c r="A151" s="3">
+    <row r="151" ht="16" customHeight="1">
+      <c r="A151" s="4">
         <v>149</v>
       </c>
       <c r="B151" s="4">
@@ -3893,8 +4270,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
-      <c r="A152" s="3">
+    <row r="152" ht="16" customHeight="1">
+      <c r="A152" s="4">
         <v>150</v>
       </c>
       <c r="B152" s="4">
@@ -3913,8 +4290,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="3">
+    <row r="153" ht="16" customHeight="1">
+      <c r="A153" s="4">
         <v>151</v>
       </c>
       <c r="B153" s="4">
@@ -3933,8 +4310,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
-      <c r="A154" s="3">
+    <row r="154" ht="16" customHeight="1">
+      <c r="A154" s="4">
         <v>152</v>
       </c>
       <c r="B154" s="4">
@@ -3953,8 +4330,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
-      <c r="A155" s="3">
+    <row r="155" ht="16" customHeight="1">
+      <c r="A155" s="4">
         <v>153</v>
       </c>
       <c r="B155" s="4">
@@ -3973,8 +4350,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
-      <c r="A156" s="3">
+    <row r="156" ht="16" customHeight="1">
+      <c r="A156" s="4">
         <v>154</v>
       </c>
       <c r="B156" s="4">
@@ -3993,8 +4370,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
-      <c r="A157" s="3">
+    <row r="157" ht="16" customHeight="1">
+      <c r="A157" s="4">
         <v>155</v>
       </c>
       <c r="B157" s="4">
@@ -4013,8 +4390,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
-      <c r="A158" s="3">
+    <row r="158" ht="16" customHeight="1">
+      <c r="A158" s="4">
         <v>156</v>
       </c>
       <c r="B158" s="4">
@@ -4033,8 +4410,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
-      <c r="A159" s="3">
+    <row r="159" ht="16" customHeight="1">
+      <c r="A159" s="4">
         <v>157</v>
       </c>
       <c r="B159" s="4">
@@ -4053,8 +4430,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
-      <c r="A160" s="3">
+    <row r="160" ht="16" customHeight="1">
+      <c r="A160" s="4">
         <v>158</v>
       </c>
       <c r="B160" s="4">
@@ -4073,8 +4450,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
-      <c r="A161" s="3">
+    <row r="161" ht="16" customHeight="1">
+      <c r="A161" s="4">
         <v>159</v>
       </c>
       <c r="B161" s="4">
@@ -4093,8 +4470,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
-      <c r="A162" s="3">
+    <row r="162" ht="16" customHeight="1">
+      <c r="A162" s="4">
         <v>160</v>
       </c>
       <c r="B162" s="4">
@@ -4113,8 +4490,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
-      <c r="A163" s="3">
+    <row r="163" ht="16" customHeight="1">
+      <c r="A163" s="4">
         <v>161</v>
       </c>
       <c r="B163" s="4">
@@ -4133,8 +4510,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
-      <c r="A164" s="3">
+    <row r="164" ht="16" customHeight="1">
+      <c r="A164" s="4">
         <v>162</v>
       </c>
       <c r="B164" s="4">
@@ -4153,8 +4530,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
-      <c r="A165" s="3">
+    <row r="165" ht="16" customHeight="1">
+      <c r="A165" s="4">
         <v>163</v>
       </c>
       <c r="B165" s="4">
@@ -4173,8 +4550,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
-      <c r="A166" s="3">
+    <row r="166" ht="16" customHeight="1">
+      <c r="A166" s="4">
         <v>164</v>
       </c>
       <c r="B166" s="4">
@@ -4193,8 +4570,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
-      <c r="A167" s="3">
+    <row r="167" ht="16" customHeight="1">
+      <c r="A167" s="4">
         <v>165</v>
       </c>
       <c r="B167" s="4">
@@ -4213,8 +4590,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
-      <c r="A168" s="3">
+    <row r="168" ht="16" customHeight="1">
+      <c r="A168" s="4">
         <v>166</v>
       </c>
       <c r="B168" s="4">
@@ -4233,8 +4610,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
-      <c r="A169" s="3">
+    <row r="169" ht="16" customHeight="1">
+      <c r="A169" s="4">
         <v>167</v>
       </c>
       <c r="B169" s="4">
@@ -4253,8 +4630,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
-      <c r="A170" s="3">
+    <row r="170" ht="16" customHeight="1">
+      <c r="A170" s="4">
         <v>168</v>
       </c>
       <c r="B170" s="4">
@@ -4273,8 +4650,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
-      <c r="A171" s="3">
+    <row r="171" ht="16" customHeight="1">
+      <c r="A171" s="4">
         <v>169</v>
       </c>
       <c r="B171" s="4">
@@ -4293,8 +4670,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
-      <c r="A172" s="3">
+    <row r="172" ht="16" customHeight="1">
+      <c r="A172" s="4">
         <v>170</v>
       </c>
       <c r="B172" s="4">
@@ -4313,8 +4690,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
-      <c r="A173" s="3">
+    <row r="173" ht="16" customHeight="1">
+      <c r="A173" s="4">
         <v>171</v>
       </c>
       <c r="B173" s="4">
@@ -4333,8 +4710,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
-      <c r="A174" s="3">
+    <row r="174" ht="16" customHeight="1">
+      <c r="A174" s="4">
         <v>172</v>
       </c>
       <c r="B174" s="4">
@@ -4353,8 +4730,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
-      <c r="A175" s="3">
+    <row r="175" ht="16" customHeight="1">
+      <c r="A175" s="4">
         <v>173</v>
       </c>
       <c r="B175" s="4">
@@ -4373,8 +4750,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
-      <c r="A176" s="3">
+    <row r="176" ht="16" customHeight="1">
+      <c r="A176" s="4">
         <v>174</v>
       </c>
       <c r="B176" s="4">
@@ -4393,8 +4770,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
-      <c r="A177" s="3">
+    <row r="177" ht="16" customHeight="1">
+      <c r="A177" s="4">
         <v>175</v>
       </c>
       <c r="B177" s="4">
@@ -4413,8 +4790,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
-      <c r="A178" s="3">
+    <row r="178" ht="16" customHeight="1">
+      <c r="A178" s="4">
         <v>176</v>
       </c>
       <c r="B178" s="4">
@@ -4433,8 +4810,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
-      <c r="A179" s="3">
+    <row r="179" ht="16" customHeight="1">
+      <c r="A179" s="4">
         <v>177</v>
       </c>
       <c r="B179" s="4">
@@ -4453,8 +4830,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
-      <c r="A180" s="3">
+    <row r="180" ht="16" customHeight="1">
+      <c r="A180" s="4">
         <v>178</v>
       </c>
       <c r="B180" s="4">
@@ -4473,8 +4850,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
-      <c r="A181" s="3">
+    <row r="181" ht="16" customHeight="1">
+      <c r="A181" s="4">
         <v>179</v>
       </c>
       <c r="B181" s="4">
@@ -4493,8 +4870,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
-      <c r="A182" s="3">
+    <row r="182" ht="16" customHeight="1">
+      <c r="A182" s="4">
         <v>180</v>
       </c>
       <c r="B182" s="4">
@@ -4513,8 +4890,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
-      <c r="A183" s="3">
+    <row r="183" ht="16" customHeight="1">
+      <c r="A183" s="4">
         <v>181</v>
       </c>
       <c r="B183" s="4">
@@ -4533,8 +4910,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
-      <c r="A184" s="3">
+    <row r="184" ht="16" customHeight="1">
+      <c r="A184" s="4">
         <v>182</v>
       </c>
       <c r="B184" s="4">
@@ -4553,8 +4930,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
-      <c r="A185" s="3">
+    <row r="185" ht="16" customHeight="1">
+      <c r="A185" s="4">
         <v>183</v>
       </c>
       <c r="B185" s="4">
@@ -4573,8 +4950,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
-      <c r="A186" s="3">
+    <row r="186" ht="16" customHeight="1">
+      <c r="A186" s="4">
         <v>184</v>
       </c>
       <c r="B186" s="4">
@@ -4593,8 +4970,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
-      <c r="A187" s="3">
+    <row r="187" ht="16" customHeight="1">
+      <c r="A187" s="4">
         <v>185</v>
       </c>
       <c r="B187" s="4">
@@ -4613,8 +4990,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
-      <c r="A188" s="3">
+    <row r="188" ht="16" customHeight="1">
+      <c r="A188" s="4">
         <v>186</v>
       </c>
       <c r="B188" s="4">
@@ -4633,8 +5010,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
-      <c r="A189" s="3">
+    <row r="189" ht="16" customHeight="1">
+      <c r="A189" s="4">
         <v>187</v>
       </c>
       <c r="B189" s="4">
@@ -4653,8 +5030,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
-      <c r="A190" s="3">
+    <row r="190" ht="16" customHeight="1">
+      <c r="A190" s="4">
         <v>188</v>
       </c>
       <c r="B190" s="4">
@@ -4673,8 +5050,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
-      <c r="A191" s="3">
+    <row r="191" ht="16" customHeight="1">
+      <c r="A191" s="4">
         <v>189</v>
       </c>
       <c r="B191" s="4">
@@ -4693,8 +5070,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
-      <c r="A192" s="3">
+    <row r="192" ht="16" customHeight="1">
+      <c r="A192" s="4">
         <v>190</v>
       </c>
       <c r="B192" s="4">
@@ -4713,8 +5090,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
-      <c r="A193" s="3">
+    <row r="193" ht="16" customHeight="1">
+      <c r="A193" s="4">
         <v>191</v>
       </c>
       <c r="B193" s="4">
@@ -4733,8 +5110,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
-      <c r="A194" s="3">
+    <row r="194" ht="16" customHeight="1">
+      <c r="A194" s="4">
         <v>192</v>
       </c>
       <c r="B194" s="4">
@@ -4753,8 +5130,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
-      <c r="A195" s="3">
+    <row r="195" ht="16" customHeight="1">
+      <c r="A195" s="4">
         <v>193</v>
       </c>
       <c r="B195" s="4">
@@ -4773,8 +5150,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
-      <c r="A196" s="3">
+    <row r="196" ht="16" customHeight="1">
+      <c r="A196" s="4">
         <v>194</v>
       </c>
       <c r="B196" s="4">
@@ -4793,8 +5170,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
-      <c r="A197" s="3">
+    <row r="197" ht="16" customHeight="1">
+      <c r="A197" s="4">
         <v>195</v>
       </c>
       <c r="B197" s="4">
@@ -4813,8 +5190,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
-      <c r="A198" s="3">
+    <row r="198" ht="16" customHeight="1">
+      <c r="A198" s="4">
         <v>196</v>
       </c>
       <c r="B198" s="4">
@@ -4833,8 +5210,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
-      <c r="A199" s="3">
+    <row r="199" ht="16" customHeight="1">
+      <c r="A199" s="4">
         <v>197</v>
       </c>
       <c r="B199" s="4">
@@ -4853,8 +5230,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
-      <c r="A200" s="3">
+    <row r="200" ht="16" customHeight="1">
+      <c r="A200" s="4">
         <v>198</v>
       </c>
       <c r="B200" s="4">
@@ -4873,8 +5250,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
-      <c r="A201" s="3">
+    <row r="201" ht="16" customHeight="1">
+      <c r="A201" s="4">
         <v>199</v>
       </c>
       <c r="B201" s="4">
@@ -4893,8 +5270,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
-      <c r="A202" s="3">
+    <row r="202" ht="16" customHeight="1">
+      <c r="A202" s="4">
         <v>200</v>
       </c>
       <c r="B202" s="4">
@@ -4913,8 +5290,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
-      <c r="A203" s="3">
+    <row r="203" ht="16" customHeight="1">
+      <c r="A203" s="4">
         <v>201</v>
       </c>
       <c r="B203" s="4">
@@ -4933,8 +5310,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
-      <c r="A204" s="3">
+    <row r="204" ht="16" customHeight="1">
+      <c r="A204" s="4">
         <v>202</v>
       </c>
       <c r="B204" s="4">
@@ -4953,8 +5330,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
-      <c r="A205" s="3">
+    <row r="205" ht="16" customHeight="1">
+      <c r="A205" s="4">
         <v>203</v>
       </c>
       <c r="B205" s="4">
@@ -4973,8 +5350,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
-      <c r="A206" s="3">
+    <row r="206" ht="16" customHeight="1">
+      <c r="A206" s="4">
         <v>204</v>
       </c>
       <c r="B206" s="4">
@@ -4993,8 +5370,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
-      <c r="A207" s="3">
+    <row r="207" ht="16" customHeight="1">
+      <c r="A207" s="4">
         <v>205</v>
       </c>
       <c r="B207" s="4">
@@ -5013,8 +5390,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
-      <c r="A208" s="3">
+    <row r="208" ht="16" customHeight="1">
+      <c r="A208" s="4">
         <v>206</v>
       </c>
       <c r="B208" s="4">
@@ -5033,8 +5410,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
-      <c r="A209" s="3">
+    <row r="209" ht="16" customHeight="1">
+      <c r="A209" s="4">
         <v>207</v>
       </c>
       <c r="B209" s="4">
@@ -5053,8 +5430,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
-      <c r="A210" s="3">
+    <row r="210" ht="16" customHeight="1">
+      <c r="A210" s="4">
         <v>208</v>
       </c>
       <c r="B210" s="4">
@@ -5073,8 +5450,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
-      <c r="A211" s="3">
+    <row r="211" ht="16" customHeight="1">
+      <c r="A211" s="4">
         <v>209</v>
       </c>
       <c r="B211" s="4">
@@ -5093,8 +5470,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
-      <c r="A212" s="3">
+    <row r="212" ht="16" customHeight="1">
+      <c r="A212" s="4">
         <v>210</v>
       </c>
       <c r="B212" s="4">
@@ -5113,8 +5490,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
-      <c r="A213" s="3">
+    <row r="213" ht="16" customHeight="1">
+      <c r="A213" s="4">
         <v>211</v>
       </c>
       <c r="B213" s="4">
@@ -5133,8 +5510,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="3">
+    <row r="214" ht="16" customHeight="1">
+      <c r="A214" s="4">
         <v>212</v>
       </c>
       <c r="B214" s="4">
@@ -5153,8 +5530,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
-      <c r="A215" s="3">
+    <row r="215" ht="16" customHeight="1">
+      <c r="A215" s="4">
         <v>213</v>
       </c>
       <c r="B215" s="4">
@@ -5173,8 +5550,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="3">
+    <row r="216" ht="16" customHeight="1">
+      <c r="A216" s="4">
         <v>214</v>
       </c>
       <c r="B216" s="4">
@@ -5193,8 +5570,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
-      <c r="A217" s="3">
+    <row r="217" ht="16" customHeight="1">
+      <c r="A217" s="4">
         <v>215</v>
       </c>
       <c r="B217" s="4">
@@ -5213,8 +5590,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="3">
+    <row r="218" ht="16" customHeight="1">
+      <c r="A218" s="4">
         <v>216</v>
       </c>
       <c r="B218" s="4">
@@ -5233,8 +5610,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
-      <c r="A219" s="3">
+    <row r="219" ht="16" customHeight="1">
+      <c r="A219" s="4">
         <v>217</v>
       </c>
       <c r="B219" s="4">
@@ -5253,8 +5630,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="3">
+    <row r="220" ht="16" customHeight="1">
+      <c r="A220" s="4">
         <v>218</v>
       </c>
       <c r="B220" s="4">
@@ -5273,8 +5650,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="3">
+    <row r="221" ht="16" customHeight="1">
+      <c r="A221" s="4">
         <v>219</v>
       </c>
       <c r="B221" s="4">
@@ -5293,8 +5670,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
-      <c r="A222" s="3">
+    <row r="222" ht="16" customHeight="1">
+      <c r="A222" s="4">
         <v>220</v>
       </c>
       <c r="B222" s="4">
@@ -5313,8 +5690,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="3">
+    <row r="223" ht="16" customHeight="1">
+      <c r="A223" s="4">
         <v>221</v>
       </c>
       <c r="B223" s="4">
@@ -5333,8 +5710,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="3">
+    <row r="224" ht="16" customHeight="1">
+      <c r="A224" s="4">
         <v>222</v>
       </c>
       <c r="B224" s="4">
@@ -5353,8 +5730,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
-      <c r="A225" s="3">
+    <row r="225" ht="16" customHeight="1">
+      <c r="A225" s="4">
         <v>223</v>
       </c>
       <c r="B225" s="4">
@@ -5373,8 +5750,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
-      <c r="A226" s="3">
+    <row r="226" ht="16" customHeight="1">
+      <c r="A226" s="4">
         <v>224</v>
       </c>
       <c r="B226" s="4">
@@ -5393,8 +5770,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
-      <c r="A227" s="3">
+    <row r="227" ht="16" customHeight="1">
+      <c r="A227" s="4">
         <v>225</v>
       </c>
       <c r="B227" s="4">
@@ -5413,8 +5790,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
-      <c r="A228" s="3">
+    <row r="228" ht="16" customHeight="1">
+      <c r="A228" s="4">
         <v>226</v>
       </c>
       <c r="B228" s="4">
@@ -5433,8 +5810,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
-      <c r="A229" s="3">
+    <row r="229" ht="16" customHeight="1">
+      <c r="A229" s="4">
         <v>227</v>
       </c>
       <c r="B229" s="4">
@@ -5453,8 +5830,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
-      <c r="A230" s="3">
+    <row r="230" ht="16" customHeight="1">
+      <c r="A230" s="4">
         <v>228</v>
       </c>
       <c r="B230" s="4">
@@ -5473,8 +5850,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
-      <c r="A231" s="3">
+    <row r="231" ht="16" customHeight="1">
+      <c r="A231" s="4">
         <v>229</v>
       </c>
       <c r="B231" s="4">
@@ -5493,8 +5870,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
-      <c r="A232" s="3">
+    <row r="232" ht="16" customHeight="1">
+      <c r="A232" s="4">
         <v>230</v>
       </c>
       <c r="B232" s="4">
@@ -5513,8 +5890,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
-      <c r="A233" s="3">
+    <row r="233" ht="16" customHeight="1">
+      <c r="A233" s="4">
         <v>231</v>
       </c>
       <c r="B233" s="4">
@@ -5533,8 +5910,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
-      <c r="A234" s="3">
+    <row r="234" ht="16" customHeight="1">
+      <c r="A234" s="4">
         <v>232</v>
       </c>
       <c r="B234" s="4">
@@ -5553,8 +5930,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
-      <c r="A235" s="3">
+    <row r="235" ht="16" customHeight="1">
+      <c r="A235" s="4">
         <v>233</v>
       </c>
       <c r="B235" s="4">
@@ -5573,8 +5950,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
-      <c r="A236" s="3">
+    <row r="236" ht="16" customHeight="1">
+      <c r="A236" s="4">
         <v>234</v>
       </c>
       <c r="B236" s="4">
@@ -5593,8 +5970,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
-      <c r="A237" s="3">
+    <row r="237" ht="16" customHeight="1">
+      <c r="A237" s="4">
         <v>235</v>
       </c>
       <c r="B237" s="4">
@@ -5613,8 +5990,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
-      <c r="A238" s="3">
+    <row r="238" ht="16" customHeight="1">
+      <c r="A238" s="4">
         <v>236</v>
       </c>
       <c r="B238" s="4">
@@ -5633,8 +6010,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
-      <c r="A239" s="3">
+    <row r="239" ht="16" customHeight="1">
+      <c r="A239" s="4">
         <v>237</v>
       </c>
       <c r="B239" s="4">
@@ -5653,8 +6030,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
-      <c r="A240" s="3">
+    <row r="240" ht="16" customHeight="1">
+      <c r="A240" s="4">
         <v>238</v>
       </c>
       <c r="B240" s="4">
@@ -5673,8 +6050,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
-      <c r="A241" s="3">
+    <row r="241" ht="16" customHeight="1">
+      <c r="A241" s="4">
         <v>239</v>
       </c>
       <c r="B241" s="4">
@@ -5693,8 +6070,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
-      <c r="A242" s="3">
+    <row r="242" ht="16" customHeight="1">
+      <c r="A242" s="4">
         <v>240</v>
       </c>
       <c r="B242" s="4">
@@ -5713,8 +6090,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
-      <c r="A243" s="3">
+    <row r="243" ht="16" customHeight="1">
+      <c r="A243" s="4">
         <v>241</v>
       </c>
       <c r="B243" s="4">
@@ -5733,8 +6110,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
-      <c r="A244" s="3">
+    <row r="244" ht="16" customHeight="1">
+      <c r="A244" s="4">
         <v>242</v>
       </c>
       <c r="B244" s="4">
@@ -5753,8 +6130,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
-      <c r="A245" s="3">
+    <row r="245" ht="16" customHeight="1">
+      <c r="A245" s="4">
         <v>243</v>
       </c>
       <c r="B245" s="4">
@@ -5773,8 +6150,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
-      <c r="A246" s="3">
+    <row r="246" ht="16" customHeight="1">
+      <c r="A246" s="4">
         <v>244</v>
       </c>
       <c r="B246" s="4">
@@ -5793,8 +6170,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
-      <c r="A247" s="3">
+    <row r="247" ht="16" customHeight="1">
+      <c r="A247" s="4">
         <v>245</v>
       </c>
       <c r="B247" s="4">
@@ -5813,8 +6190,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
-      <c r="A248" s="3">
+    <row r="248" ht="16" customHeight="1">
+      <c r="A248" s="4">
         <v>246</v>
       </c>
       <c r="B248" s="4">
@@ -5833,8 +6210,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
-      <c r="A249" s="3">
+    <row r="249" ht="16" customHeight="1">
+      <c r="A249" s="4">
         <v>247</v>
       </c>
       <c r="B249" s="4">
@@ -5853,8 +6230,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
-      <c r="A250" s="3">
+    <row r="250" ht="16" customHeight="1">
+      <c r="A250" s="4">
         <v>248</v>
       </c>
       <c r="B250" s="4">
@@ -5873,8 +6250,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
-      <c r="A251" s="3">
+    <row r="251" ht="16" customHeight="1">
+      <c r="A251" s="4">
         <v>249</v>
       </c>
       <c r="B251" s="4">
@@ -5893,8 +6270,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
-      <c r="A252" s="3">
+    <row r="252" ht="16" customHeight="1">
+      <c r="A252" s="4">
         <v>250</v>
       </c>
       <c r="B252" s="4">
@@ -5913,8 +6290,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
-      <c r="A253" s="3">
+    <row r="253" ht="16" customHeight="1">
+      <c r="A253" s="4">
         <v>251</v>
       </c>
       <c r="B253" s="4">
@@ -5933,8 +6310,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
-      <c r="A254" s="3">
+    <row r="254" ht="16" customHeight="1">
+      <c r="A254" s="4">
         <v>252</v>
       </c>
       <c r="B254" s="4">
@@ -5953,8 +6330,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
-      <c r="A255" s="3">
+    <row r="255" ht="16" customHeight="1">
+      <c r="A255" s="4">
         <v>253</v>
       </c>
       <c r="B255" s="4">
@@ -5973,8 +6350,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
-      <c r="A256" s="3">
+    <row r="256" ht="16" customHeight="1">
+      <c r="A256" s="4">
         <v>254</v>
       </c>
       <c r="B256" s="4">
@@ -5993,8 +6370,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
-      <c r="A257" s="3">
+    <row r="257" ht="16" customHeight="1">
+      <c r="A257" s="4">
         <v>255</v>
       </c>
       <c r="B257" s="4">
@@ -6013,8 +6390,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
-      <c r="A258" s="3">
+    <row r="258" ht="16" customHeight="1">
+      <c r="A258" s="4">
         <v>256</v>
       </c>
       <c r="B258" s="4">
@@ -6033,8 +6410,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
-      <c r="A259" s="3">
+    <row r="259" ht="16" customHeight="1">
+      <c r="A259" s="4">
         <v>257</v>
       </c>
       <c r="B259" s="4">
@@ -6053,8 +6430,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
-      <c r="A260" s="3">
+    <row r="260" ht="16" customHeight="1">
+      <c r="A260" s="4">
         <v>258</v>
       </c>
       <c r="B260" s="4">
@@ -6073,8 +6450,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
-      <c r="A261" s="3">
+    <row r="261" ht="16" customHeight="1">
+      <c r="A261" s="4">
         <v>259</v>
       </c>
       <c r="B261" s="4">
@@ -6094,33 +6471,192 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="5" width="8.85156" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16" customHeight="1">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" ht="16" customHeight="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" ht="16" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" ht="16" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" ht="16" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" ht="16" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" ht="16" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" ht="16" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" ht="16" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" ht="16" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="5" width="8.85156" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16" customHeight="1">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" ht="16" customHeight="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" ht="16" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" ht="16" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" ht="16" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" ht="16" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" ht="16" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" ht="16" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" ht="16" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" ht="16" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>